--- a/90-Day_Real-World_Scenario_Projection_with_7_Leverage.xlsx
+++ b/90-Day_Real-World_Scenario_Projection_with_7_Leverage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0107DEE-F2DD-444C-B3A8-EB422A8C6382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B2E07B-5773-468C-B9C6-12B754A52288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,6 +58,7 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -71,19 +72,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,21 +125,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -146,9 +151,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,41 +471,42 @@
   </sheetPr>
   <dimension ref="B1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="4">
@@ -517,7 +520,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="4">
@@ -531,7 +534,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="4">
@@ -545,7 +548,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="4">
@@ -559,7 +562,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="4">
@@ -573,7 +576,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="4">
@@ -587,7 +590,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="4">
@@ -601,7 +604,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="4">
@@ -615,7 +618,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>9</v>
       </c>
       <c r="C11" s="4">
@@ -629,7 +632,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
       <c r="C12" s="4">
@@ -643,7 +646,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>11</v>
       </c>
       <c r="C13" s="4">
@@ -657,7 +660,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>12</v>
       </c>
       <c r="C14" s="4">
@@ -671,7 +674,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>13</v>
       </c>
       <c r="C15" s="4">
@@ -685,7 +688,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>14</v>
       </c>
       <c r="C16" s="4">
@@ -699,7 +702,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>15</v>
       </c>
       <c r="C17" s="4">
@@ -713,7 +716,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>16</v>
       </c>
       <c r="C18" s="4">
@@ -727,21 +730,21 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
+      <c r="B19" s="7">
         <v>17</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="8">
         <v>0.01</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="9">
         <v>12219.39</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>18</v>
       </c>
       <c r="C20" s="4">
@@ -755,7 +758,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>19</v>
       </c>
       <c r="C21" s="4">
@@ -769,7 +772,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>20</v>
       </c>
       <c r="C22" s="4">
@@ -783,7 +786,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>21</v>
       </c>
       <c r="C23" s="4">
@@ -797,7 +800,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>22</v>
       </c>
       <c r="C24" s="4">
@@ -811,7 +814,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>23</v>
       </c>
       <c r="C25" s="4">
@@ -825,7 +828,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>24</v>
       </c>
       <c r="C26" s="4">
@@ -839,7 +842,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>25</v>
       </c>
       <c r="C27" s="4">
@@ -853,7 +856,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>26</v>
       </c>
       <c r="C28" s="4">
@@ -867,7 +870,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>27</v>
       </c>
       <c r="C29" s="4">
@@ -881,7 +884,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>28</v>
       </c>
       <c r="C30" s="4">
@@ -895,7 +898,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>29</v>
       </c>
       <c r="C31" s="4">
@@ -909,21 +912,21 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="3">
+      <c r="B32" s="7">
         <v>30</v>
       </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
         <v>19826.34</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>31</v>
       </c>
       <c r="C33" s="4">
@@ -937,7 +940,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>32</v>
       </c>
       <c r="C34" s="4">
@@ -951,7 +954,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>33</v>
       </c>
       <c r="C35" s="4">
@@ -965,7 +968,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>34</v>
       </c>
       <c r="C36" s="4">
@@ -979,7 +982,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>35</v>
       </c>
       <c r="C37" s="4">
@@ -993,7 +996,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>36</v>
       </c>
       <c r="C38" s="4">
@@ -1007,7 +1010,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>37</v>
       </c>
       <c r="C39" s="4">
@@ -1021,7 +1024,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>38</v>
       </c>
       <c r="C40" s="4">
@@ -1035,7 +1038,7 @@
       </c>
     </row>
     <row r="41" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>39</v>
       </c>
       <c r="C41" s="4">
@@ -1049,7 +1052,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>40</v>
       </c>
       <c r="C42" s="4">
@@ -1063,7 +1066,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>41</v>
       </c>
       <c r="C43" s="4">
@@ -1077,7 +1080,7 @@
       </c>
     </row>
     <row r="44" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>42</v>
       </c>
       <c r="C44" s="4">
@@ -1091,7 +1094,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>43</v>
       </c>
       <c r="C45" s="4">
@@ -1105,7 +1108,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>44</v>
       </c>
       <c r="C46" s="4">
@@ -1119,21 +1122,21 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="3">
+      <c r="B47" s="7">
         <v>45</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="8">
         <v>0.02</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="9">
         <v>39104.79</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>46</v>
       </c>
       <c r="C48" s="4">
@@ -1147,7 +1150,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>47</v>
       </c>
       <c r="C49" s="4">
@@ -1161,7 +1164,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>48</v>
       </c>
       <c r="C50" s="4">
@@ -1175,7 +1178,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>49</v>
       </c>
       <c r="C51" s="4">
@@ -1189,7 +1192,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>50</v>
       </c>
       <c r="C52" s="4">
@@ -1203,7 +1206,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>51</v>
       </c>
       <c r="C53" s="4">
@@ -1217,7 +1220,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>52</v>
       </c>
       <c r="C54" s="4">
@@ -1231,7 +1234,7 @@
       </c>
     </row>
     <row r="55" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>53</v>
       </c>
       <c r="C55" s="4">
@@ -1245,7 +1248,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>54</v>
       </c>
       <c r="C56" s="4">
@@ -1259,7 +1262,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>55</v>
       </c>
       <c r="C57" s="4">
@@ -1273,7 +1276,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>56</v>
       </c>
       <c r="C58" s="4">
@@ -1287,7 +1290,7 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>57</v>
       </c>
       <c r="C59" s="4">
@@ -1301,7 +1304,7 @@
       </c>
     </row>
     <row r="60" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>58</v>
       </c>
       <c r="C60" s="4">
@@ -1315,7 +1318,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>59</v>
       </c>
       <c r="C61" s="4">
@@ -1329,21 +1332,21 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B62" s="3">
+      <c r="B62" s="7">
         <v>60</v>
       </c>
-      <c r="C62" s="6">
-        <v>0</v>
-      </c>
-      <c r="D62" s="6">
-        <v>0</v>
-      </c>
-      <c r="E62" s="7">
+      <c r="C62" s="8">
+        <v>0</v>
+      </c>
+      <c r="D62" s="8">
+        <v>0</v>
+      </c>
+      <c r="E62" s="9">
         <v>65513.97</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>61</v>
       </c>
       <c r="C63" s="4">
@@ -1357,7 +1360,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>62</v>
       </c>
       <c r="C64" s="4">
@@ -1371,7 +1374,7 @@
       </c>
     </row>
     <row r="65" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>63</v>
       </c>
       <c r="C65" s="4">
@@ -1385,7 +1388,7 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>64</v>
       </c>
       <c r="C66" s="4">
@@ -1399,7 +1402,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>65</v>
       </c>
       <c r="C67" s="4">
@@ -1413,7 +1416,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>66</v>
       </c>
       <c r="C68" s="4">
@@ -1427,7 +1430,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>67</v>
       </c>
       <c r="C69" s="4">
@@ -1441,7 +1444,7 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>68</v>
       </c>
       <c r="C70" s="4">
@@ -1455,7 +1458,7 @@
       </c>
     </row>
     <row r="71" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>69</v>
       </c>
       <c r="C71" s="4">
@@ -1469,21 +1472,21 @@
       </c>
     </row>
     <row r="72" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>70</v>
       </c>
-      <c r="C72" s="6">
-        <v>0</v>
-      </c>
-      <c r="D72" s="6">
-        <v>0</v>
-      </c>
-      <c r="E72" s="7">
+      <c r="C72" s="4">
+        <v>0</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="5">
         <v>97580.79</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>71</v>
       </c>
       <c r="C73" s="4">
@@ -1497,7 +1500,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>72</v>
       </c>
       <c r="C74" s="4">
@@ -1511,7 +1514,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>73</v>
       </c>
       <c r="C75" s="4">
@@ -1525,7 +1528,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>74</v>
       </c>
       <c r="C76" s="4">
@@ -1539,21 +1542,21 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B77" s="3">
+      <c r="B77" s="7">
         <v>75</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="8">
         <v>0.02</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="9">
         <v>129217.47</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>76</v>
       </c>
       <c r="C78" s="4">
@@ -1567,7 +1570,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>77</v>
       </c>
       <c r="C79" s="4">
@@ -1581,7 +1584,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>78</v>
       </c>
       <c r="C80" s="4">
@@ -1595,7 +1598,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>79</v>
       </c>
       <c r="C81" s="4">
@@ -1609,7 +1612,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>80</v>
       </c>
       <c r="C82" s="4">
@@ -1623,7 +1626,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>81</v>
       </c>
       <c r="C83" s="4">
@@ -1637,7 +1640,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>82</v>
       </c>
       <c r="C84" s="4">
@@ -1651,7 +1654,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>83</v>
       </c>
       <c r="C85" s="4">
@@ -1665,7 +1668,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>84</v>
       </c>
       <c r="C86" s="4">
@@ -1679,7 +1682,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>85</v>
       </c>
       <c r="C87" s="4">
@@ -1693,7 +1696,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>86</v>
       </c>
       <c r="C88" s="4">
@@ -1707,7 +1710,7 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>87</v>
       </c>
       <c r="C89" s="4">
@@ -1721,7 +1724,7 @@
       </c>
     </row>
     <row r="90" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>88</v>
       </c>
       <c r="C90" s="4">
@@ -1735,7 +1738,7 @@
       </c>
     </row>
     <row r="91" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>89</v>
       </c>
       <c r="C91" s="4">
@@ -1749,16 +1752,16 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B92" s="3">
+      <c r="B92" s="7">
         <v>90</v>
       </c>
-      <c r="C92" s="6">
-        <v>0</v>
-      </c>
-      <c r="D92" s="6">
-        <v>0</v>
-      </c>
-      <c r="E92" s="7">
+      <c r="C92" s="8">
+        <v>0</v>
+      </c>
+      <c r="D92" s="8">
+        <v>0</v>
+      </c>
+      <c r="E92" s="9">
         <v>216483.71</v>
       </c>
     </row>
@@ -1767,5 +1770,6 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/90-Day_Real-World_Scenario_Projection_with_7_Leverage.xlsx
+++ b/90-Day_Real-World_Scenario_Projection_with_7_Leverage.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B2E07B-5773-468C-B9C6-12B754A52288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD19544-75BE-453D-9BCE-EE034FA7D260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Possiblity" sheetId="1" r:id="rId1"/>
+    <sheet name="Reality" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Day</t>
   </si>
@@ -33,12 +46,15 @@
   <si>
     <t>Capital ($)</t>
   </si>
+  <si>
+    <t>Leverage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -59,6 +75,24 @@
     <font>
       <sz val="9"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -125,11 +159,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -151,6 +182,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,1297 +523,1297 @@
   </sheetPr>
   <dimension ref="B1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="14.42578125" style="3"/>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.105</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>6630</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>6862.05</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>7222.31</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>6969.53</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>7945.26</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>7667.18</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.01</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>8203.8799999999992</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>8491.01</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>8936.7900000000009</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>8936.7900000000009</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.105</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>9875.16</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>10220.790000000001</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>10757.38</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>10380.870000000001</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D17" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>11834.19</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>11419.99</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>17</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>0.01</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>12219.39</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>12647.07</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>13311.04</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>13311.04</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>0.105</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>14708.7</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>22</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>15223.51</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>16022.74</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>15461.95</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>25</v>
       </c>
-      <c r="C27" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="C27" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D27" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>17626.62</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>26</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>17009.689999999999</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>27</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>0.01</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>18200.37</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>28</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>18837.38</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>29</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>19826.34</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>30</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>0</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>0</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>19826.34</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>0.105</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>21908.11</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>22674.89</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>33</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>23865.32</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>34</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>23030.04</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>35</v>
       </c>
-      <c r="C37" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="D37" s="4">
+      <c r="C37" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D37" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>26254.240000000002</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>36</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>25335.34</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>37</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>0.01</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>27108.82</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>38</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>28057.63</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>39</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>29530.65</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>0</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>29530.65</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>41</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>0.105</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>32631.37</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>42</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>33773.47</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>43</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>35546.57</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>44</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>34302.44</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>45</v>
       </c>
-      <c r="C47" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="D47" s="8">
+      <c r="C47" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D47" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <v>39104.79</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>46</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>37736.120000000003</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>47</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>0.01</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>40377.65</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>41790.86</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>49</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>43984.89</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>50</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>0</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>43984.89</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>51</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>0.105</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <v>48603.3</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>52</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <v>50304.41</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>53</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <v>52945.4</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>54</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <v>51092.31</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>55</v>
       </c>
-      <c r="C57" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="D57" s="4">
+      <c r="C57" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D57" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>58245.23</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>56</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <v>56206.65</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>57</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>0.01</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="4">
         <v>60141.11</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>58</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="4">
         <v>62246.05</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>59</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <v>65513.97</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>60</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <v>0</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="7">
         <v>0</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>65513.97</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>61</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="3">
         <v>0.105</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="4">
         <v>72392.929999999993</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>62</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="4">
         <v>74926.69</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>63</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <v>78860.34</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>64</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="4">
         <v>76100.23</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>65</v>
       </c>
-      <c r="C67" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="D67" s="4">
+      <c r="C67" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D67" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="4">
         <v>86754.26</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>66</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="4">
         <v>83717.86</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>67</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>0.01</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="4">
         <v>89578.11</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>68</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="4">
         <v>92713.34</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>69</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="4">
         <v>97580.79</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>70</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>0</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>0</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="4">
         <v>97580.79</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>71</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="3">
         <v>0.105</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="4">
         <v>107826.78</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>72</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="4">
         <v>111600.71</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>73</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="4">
         <v>117459.75</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>74</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="4">
         <v>113348.66</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <v>75</v>
       </c>
-      <c r="C77" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="D77" s="8">
+      <c r="C77" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D77" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="8">
         <v>129217.47</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>76</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="4">
         <v>124694.86</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>77</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>0.01</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="4">
         <v>133423.5</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>78</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="4">
         <v>138093.32</v>
       </c>
     </row>
     <row r="81" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>79</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="4">
         <v>145343.22</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>80</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>0</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="3">
         <v>0</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="4">
         <v>145343.22</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>81</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="3">
         <v>0.105</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="4">
         <v>160604.26</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>82</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="4">
         <v>166225.41</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>83</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="4">
         <v>174952.25</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>84</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="4">
         <v>168828.92</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>85</v>
       </c>
-      <c r="C87" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="D87" s="4">
+      <c r="C87" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D87" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="4">
         <v>192464.97</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>86</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="3">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="4">
         <v>185728.69</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>87</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <v>0.01</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="4">
         <v>198729.7</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>88</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="4">
         <v>205685.24</v>
       </c>
     </row>
     <row r="91" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>89</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="3">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="4">
         <v>216483.71</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B92" s="7">
+      <c r="B92" s="6">
         <v>90</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="7">
         <v>0</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="7">
         <v>0</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="8">
         <v>216483.71</v>
       </c>
     </row>
@@ -1772,4 +1824,1229 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E76A6C-66EF-40B2-8FA4-62DA24CB4621}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B1:F92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D3" s="12">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.105</v>
+      </c>
+      <c r="F3" s="9">
+        <f>6000+(6000*E3)</f>
+        <v>6630</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="F4" s="9">
+        <f>F3+(F3*E4)</f>
+        <v>7326.15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D5" s="12">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="F5" s="9">
+        <f>F4+(F4*E5)</f>
+        <v>8095.3957499999997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D6" s="12">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="F6" s="9">
+        <f>F5+(F5*E6)</f>
+        <v>8945.4123037499994</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D7" s="12">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" ref="F7:F42" si="0">F6+(F6*E7)</f>
+        <v>9884.6805956437493</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>10922.572058186342</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.105</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>12069.442124295909</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D10" s="12">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>13336.733547346979</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D11" s="12">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>14737.090569818412</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>16284.485079649345</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D13" s="12">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>17994.356013012526</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D14" s="12">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>19883.763394378842</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D15" s="12">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>21971.558550788621</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D16" s="13">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.105</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>24278.572198621427</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D17" s="12">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>26827.822279476677</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="D18" s="12">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>30583.71739860341</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D19" s="12">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>34865.437834407887</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D20" s="12">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>39746.59913122499</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D21" s="12">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>45311.123009596486</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D22" s="12">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>51654.680230939994</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D23" s="12">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>58886.335463271593</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D24" s="12">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>67130.422428129619</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D25" s="12">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>76528.681568067768</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D26" s="12">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>87242.696987597257</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D27" s="12">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>99456.674565860871</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D28" s="12">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="0"/>
+        <v>113380.60900508139</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D29" s="12">
+        <v>7</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>129253.8942657928</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D30" s="12">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>147349.4394630038</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D31" s="12">
+        <v>6</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="0"/>
+        <v>165031.37219856426</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="6">
+        <v>30</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D32" s="13">
+        <v>6</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" si="0"/>
+        <v>184835.13686239198</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="D33" s="12">
+        <v>5</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="0"/>
+        <v>203318.65054863118</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D34" s="12">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="0"/>
+        <v>223650.51560349431</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="D35" s="12">
+        <v>4</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="0"/>
+        <v>241542.55685177384</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D36" s="12">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="0"/>
+        <v>260865.96139991574</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="D37" s="12">
+        <v>3</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="0"/>
+        <v>276517.9190839107</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D38" s="12">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="0"/>
+        <v>293108.99422894535</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D39" s="12">
+        <v>3</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="0"/>
+        <v>310695.5338826821</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D40" s="12">
+        <v>3</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="0"/>
+        <v>329337.26591564302</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D41" s="12">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="0"/>
+        <v>349097.50187058159</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="6">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D42" s="13">
+        <v>3</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" si="0"/>
+        <v>370043.35198281647</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>54</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
+        <v>60</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <v>61</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B64" s="1">
+        <v>62</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B65" s="1">
+        <v>63</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <v>64</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B67" s="1">
+        <v>65</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B68" s="1">
+        <v>66</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B69" s="1">
+        <v>67</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="1">
+        <v>68</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="1">
+        <v>69</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B72" s="1">
+        <v>70</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B73" s="1">
+        <v>71</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B74" s="1">
+        <v>72</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B75" s="1">
+        <v>73</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B76" s="1">
+        <v>74</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B77" s="1">
+        <v>75</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B78" s="1">
+        <v>76</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B79" s="1">
+        <v>77</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B80" s="1">
+        <v>78</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="1">
+        <v>79</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B82" s="1">
+        <v>80</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B83" s="1">
+        <v>81</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="1">
+        <v>82</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B85" s="1">
+        <v>83</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B86" s="1">
+        <v>84</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B87" s="1">
+        <v>85</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B88" s="1">
+        <v>86</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B89" s="1">
+        <v>87</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B90" s="1">
+        <v>88</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B91" s="1">
+        <v>89</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B92" s="1">
+        <v>90</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>